--- a/records/25OS/Timeline.xlsx
+++ b/records/25OS/Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5540/records/25OS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C72F0CC-8EC5-4E76-AC93-71F728609C34}"/>
+  <xr:revisionPtr revIDLastSave="340" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90581603-1A3A-0F4D-A089-B0C677FD40B7}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="111">
   <si>
     <t xml:space="preserve"> S. No. </t>
   </si>
@@ -146,9 +146,6 @@
     <t xml:space="preserve"> 15     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Surplus Tutorial                        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 16     </t>
   </si>
   <si>
@@ -221,9 +218,6 @@
     <t xml:space="preserve"> 27     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Setting up Python/Julia                 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 28     </t>
   </si>
   <si>
@@ -233,78 +227,39 @@
     <t xml:space="preserve"> 29     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Simulation Modelling Basics             </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 30     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Simulation in Python/Julia              </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 31     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Simulation Models in Transportation     </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 32     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Macroscopic Traffic Simulation          </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 33     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Traffic Simulation in Python/Julia      </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 34     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Microscopic Traffic Simulation          </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 35     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Calibration and Validation              </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 36     </t>
   </si>
   <si>
     <t xml:space="preserve"> 37     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Optimization for Simulation             </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 38     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Digital Shadow-Model-Twin               </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 39     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Simulation-Optimization in Python/Julia </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 40     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Assignment #5 Discussion                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 41     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 42     </t>
-  </si>
-  <si>
     <t xml:space="preserve"> End Sem                                 </t>
   </si>
   <si>
@@ -323,16 +278,97 @@
     <t>Wednesday</t>
   </si>
   <si>
-    <t>F Slot</t>
-  </si>
-  <si>
     <t>Holidays</t>
   </si>
   <si>
-    <t>Need to confirm with students (original date 10/10/2025)</t>
-  </si>
-  <si>
-    <t>Need to confirm with students since quiz for F/K slot is also on the same day (original date 22-08-2025)</t>
+    <t>Overlaps with quiz for F/K</t>
+  </si>
+  <si>
+    <t>Overlaps with quiz for D</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quiz-I Discussion                                  </t>
+  </si>
+  <si>
+    <t>09-10AM</t>
+  </si>
+  <si>
+    <t>12-01PM</t>
+  </si>
+  <si>
+    <t>Options for Quiz-I:</t>
+  </si>
+  <si>
+    <t>Announcements</t>
+  </si>
+  <si>
+    <t>Monday Lecture</t>
+  </si>
+  <si>
+    <t>Assignment Submission</t>
+  </si>
+  <si>
+    <t>Room BSB 376</t>
+  </si>
+  <si>
+    <t>Options for Quiz-II</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Original date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Setting up Python                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Simulation Modeling  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Writing Simulations in Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consumer Behavior Simulation     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Behavioural Simulation in Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consumer Behavior Theory       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Macroscopic Traffic Theory             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Macroscopic Traffic Simulation in Python    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Macroscopic Traffic Simulation    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microscopic Traffic Theory             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microscopic Traffic Simulation    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microscopic Traffic Simulation in Python    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assignment #3 Discussion                </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Additional Tutorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Surplus Lecture</t>
   </si>
 </sst>
 </file>
@@ -651,21 +687,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,16 +716,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="M1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -699,16 +745,28 @@
         <v>45869</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1">
         <v>45884</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45898</v>
+      </c>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -722,16 +780,28 @@
         <v>45870</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H3" s="1">
         <v>45896</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="M3" s="1">
+        <v>45901</v>
+      </c>
+      <c r="N3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -745,16 +815,16 @@
         <v>45875</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H4" s="1">
         <v>45905</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -768,16 +838,19 @@
         <v>45876</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H5" s="1">
         <v>45932</v>
       </c>
       <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -791,16 +864,28 @@
         <v>45877</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H6" s="1">
         <v>45966</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="M6" s="1">
+        <v>45929</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -814,10 +899,22 @@
         <v>45882</v>
       </c>
       <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="1">
+        <v>45940</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -825,16 +922,16 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -842,16 +939,19 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>45889</v>
+        <v>45887</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -865,10 +965,11 @@
         <v>45889</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -882,10 +983,11 @@
         <v>45890</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -896,59 +998,64 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
       <c r="D13" s="1">
         <v>45897</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45898</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
       <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1">
-        <v>45898</v>
+        <v>45903</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -956,21 +1063,21 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
         <v>45903</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -979,32 +1086,35 @@
         <v>45904</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>45910</v>
+        <v>45908</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1013,15 +1123,15 @@
         <v>45910</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1030,15 +1140,15 @@
         <v>45911</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1047,15 +1157,15 @@
         <v>45912</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1064,15 +1174,15 @@
         <v>45917</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1081,15 +1191,15 @@
         <v>45918</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1098,15 +1208,15 @@
         <v>45919</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1115,15 +1225,15 @@
         <v>45924</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1132,339 +1242,313 @@
         <v>45925</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D27" s="1">
         <v>45926</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45929</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D29" s="1">
         <v>45931</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45931</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45933</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1">
-        <v>45933</v>
-      </c>
-      <c r="E30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45938</v>
+      </c>
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45939</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>45943</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="1">
-        <v>45938</v>
-      </c>
-      <c r="E31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="1">
-        <v>45939</v>
-      </c>
-      <c r="E32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D35" s="1">
+        <v>45945</v>
+      </c>
+      <c r="E35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45953</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>67</v>
       </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1">
-        <v>45940</v>
-      </c>
-      <c r="E33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>45954</v>
+      </c>
+      <c r="E37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>45959</v>
+      </c>
+      <c r="E38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>69</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45960</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>45961</v>
+      </c>
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="1">
-        <v>45945</v>
-      </c>
-      <c r="E34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1">
-        <v>45946</v>
-      </c>
-      <c r="E35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D41" s="1">
+        <v>45966</v>
+      </c>
+      <c r="E41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45967</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>73</v>
       </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1">
-        <v>45947</v>
-      </c>
-      <c r="E36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45968</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="1">
-        <v>45952</v>
-      </c>
-      <c r="E37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="1">
-        <v>45953</v>
-      </c>
-      <c r="E38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1">
-        <v>45954</v>
-      </c>
-      <c r="E39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="1">
-        <v>45959</v>
-      </c>
-      <c r="E40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="1">
-        <v>45960</v>
-      </c>
-      <c r="E41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="1">
-        <v>45961</v>
-      </c>
-      <c r="E42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="1">
-        <v>45966</v>
-      </c>
-      <c r="E43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D44" s="1">
-        <v>45967</v>
+        <v>45983</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="1">
-        <v>45968</v>
-      </c>
-      <c r="E45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="1">
-        <v>45983</v>
-      </c>
-      <c r="E46" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/records/25OS/Timeline.xlsx
+++ b/records/25OS/Timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5540/records/25OS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90581603-1A3A-0F4D-A089-B0C677FD40B7}"/>
+  <xr:revisionPtr revIDLastSave="387" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD944459-7F40-0142-AE13-68B4B0033A61}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
   <si>
     <t xml:space="preserve"> S. No. </t>
   </si>
@@ -125,9 +125,6 @@
     <t xml:space="preserve"> Assignment #1 Discussion                </t>
   </si>
   <si>
-    <t xml:space="preserve"> 13     </t>
-  </si>
-  <si>
     <t xml:space="preserve"> -      </t>
   </si>
   <si>
@@ -290,9 +287,6 @@
     <t>Monday</t>
   </si>
   <si>
-    <t xml:space="preserve"> Quiz-I Discussion                                  </t>
-  </si>
-  <si>
     <t>09-10AM</t>
   </si>
   <si>
@@ -311,9 +305,6 @@
     <t>Assignment Submission</t>
   </si>
   <si>
-    <t>Room BSB 376</t>
-  </si>
-  <si>
     <t>Options for Quiz-II</t>
   </si>
   <si>
@@ -329,36 +320,6 @@
     <t xml:space="preserve"> Simulation Modeling  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Writing Simulations in Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Consumer Behavior Simulation     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Behavioural Simulation in Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Consumer Behavior Theory       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Macroscopic Traffic Theory             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Macroscopic Traffic Simulation in Python    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Macroscopic Traffic Simulation    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Microscopic Traffic Theory             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Microscopic Traffic Simulation    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Microscopic Traffic Simulation in Python    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Assignment #3 Discussion                </t>
   </si>
   <si>
@@ -369,6 +330,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Surplus Lecture</t>
+  </si>
+  <si>
+    <t>Room BSB 376; Time ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discrete Event Simulation in Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Continuous Simulation in Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agent-based Simulation in Python           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discrete Event Simulation Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Continuous Simulation Theory        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agent-based Simulation Theory          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Surplus Tutorial</t>
   </si>
 </sst>
 </file>
@@ -422,6 +407,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -701,6 +690,7 @@
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -716,19 +706,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -745,25 +735,25 @@
         <v>45869</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H2" s="1">
         <v>45884</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1">
         <v>45898</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -780,25 +770,25 @@
         <v>45870</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="1">
         <v>45896</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="1">
         <v>45901</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -815,13 +805,13 @@
         <v>45875</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" s="1">
         <v>45905</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -838,16 +828,16 @@
         <v>45876</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="1">
         <v>45932</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -864,25 +854,25 @@
         <v>45877</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" s="1">
         <v>45966</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="1">
         <v>45929</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -899,19 +889,19 @@
         <v>45882</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="1">
         <v>45940</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -928,7 +918,7 @@
         <v>45883</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -945,10 +935,10 @@
         <v>45887</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -965,7 +955,7 @@
         <v>45889</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -983,7 +973,7 @@
         <v>45890</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -1001,10 +991,10 @@
         <v>45894</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1018,83 +1008,75 @@
         <v>45897</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
       </c>
       <c r="D15" s="1">
         <v>45903</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>45903</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>45904</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1103,18 +1085,18 @@
         <v>45908</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1123,15 +1105,15 @@
         <v>45910</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1140,15 +1122,15 @@
         <v>45911</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1157,15 +1139,15 @@
         <v>45912</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1174,15 +1156,15 @@
         <v>45917</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1191,15 +1173,15 @@
         <v>45918</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1208,15 +1190,15 @@
         <v>45919</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1225,15 +1207,15 @@
         <v>45924</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1242,63 +1224,63 @@
         <v>45925</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="1">
         <v>45926</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1">
         <v>45929</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1">
         <v>45931</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -1307,15 +1289,15 @@
         <v>45931</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1324,15 +1306,15 @@
         <v>45933</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -1341,15 +1323,15 @@
         <v>45938</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1358,15 +1340,15 @@
         <v>45939</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1375,15 +1357,15 @@
         <v>45943</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
         <v>99</v>
@@ -1395,21 +1377,21 @@
         <v>45945</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="E36" t="s">
         <v>77</v>
@@ -1417,7 +1399,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
         <v>103</v>
@@ -1426,18 +1408,21 @@
         <v>5</v>
       </c>
       <c r="D37" s="1">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="F37" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -1446,12 +1431,12 @@
         <v>45959</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
         <v>104</v>
@@ -1463,15 +1448,15 @@
         <v>45960</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1480,15 +1465,15 @@
         <v>45961</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -1497,58 +1482,58 @@
         <v>45966</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D42" s="1">
         <v>45967</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D43" s="1">
         <v>45968</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" s="1">
         <v>45983</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/records/25OS/Timeline.xlsx
+++ b/records/25OS/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5540/records/25OS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD944459-7F40-0142-AE13-68B4B0033A61}"/>
+  <xr:revisionPtr revIDLastSave="390" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A44036D5-383B-704D-BF6C-BEFD70CA28BD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="107">
   <si>
     <t xml:space="preserve"> S. No. </t>
   </si>
@@ -335,6 +335,9 @@
     <t>Room BSB 376; Time ?</t>
   </si>
   <si>
+    <t xml:space="preserve"> Discrete Event Simulation</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Discrete Event Simulation in Python</t>
   </si>
   <si>
@@ -344,9 +347,6 @@
     <t xml:space="preserve"> Agent-based Simulation in Python           </t>
   </si>
   <si>
-    <t xml:space="preserve"> Discrete Event Simulation Theory</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Continuous Simulation Theory        </t>
   </si>
   <si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Surplus Tutorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Single-Server Queueing Systems</t>
   </si>
 </sst>
 </file>
@@ -679,7 +682,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1331,7 +1334,7 @@
         <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1348,7 +1351,7 @@
         <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1368,7 +1371,7 @@
         <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -1422,7 +1425,7 @@
         <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -1473,7 +1476,7 @@
         <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>

--- a/records/25OS/Timeline.xlsx
+++ b/records/25OS/Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5540/records/25OS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="390" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A44036D5-383B-704D-BF6C-BEFD70CA28BD}"/>
+  <xr:revisionPtr revIDLastSave="455" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29D2AB5E-56A4-324A-A5C7-7B2887F4145A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="97">
   <si>
     <t xml:space="preserve"> S. No. </t>
   </si>
@@ -218,9 +218,6 @@
     <t xml:space="preserve"> 28     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Quiz-II Discussion                      </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 29     </t>
   </si>
   <si>
@@ -278,24 +275,9 @@
     <t>Holidays</t>
   </si>
   <si>
-    <t>Overlaps with quiz for F/K</t>
-  </si>
-  <si>
-    <t>Overlaps with quiz for D</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>09-10AM</t>
-  </si>
-  <si>
-    <t>12-01PM</t>
-  </si>
-  <si>
-    <t>Options for Quiz-I:</t>
-  </si>
-  <si>
     <t>Announcements</t>
   </si>
   <si>
@@ -305,15 +287,6 @@
     <t>Assignment Submission</t>
   </si>
   <si>
-    <t>Options for Quiz-II</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Original date</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Setting up Python                 </t>
   </si>
   <si>
@@ -326,37 +299,34 @@
     <t>-</t>
   </si>
   <si>
-    <t>Additional Tutorial</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Surplus Lecture</t>
   </si>
   <si>
-    <t>Room BSB 376; Time ?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Discrete Event Simulation</t>
   </si>
   <si>
     <t xml:space="preserve"> Discrete Event Simulation in Python</t>
   </si>
   <si>
-    <t xml:space="preserve"> Continuous Simulation in Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Agent-based Simulation in Python           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Continuous Simulation Theory        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Agent-based Simulation Theory          </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Surplus Tutorial</t>
   </si>
   <si>
     <t xml:space="preserve"> Single-Server Queueing Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cellular Automata in Python           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Digital Twin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agent-based Simulations         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Car-Following Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Julia Programming Language</t>
   </si>
 </sst>
 </file>
@@ -679,26 +649,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -709,22 +676,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -738,28 +702,16 @@
         <v>45869</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1">
         <v>45884</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="1">
-        <v>45898</v>
-      </c>
-      <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -773,28 +725,16 @@
         <v>45870</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1">
         <v>45896</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="1">
-        <v>45901</v>
-      </c>
-      <c r="N3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -808,16 +748,16 @@
         <v>45875</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H4" s="1">
         <v>45905</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -831,19 +771,16 @@
         <v>45876</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="1">
         <v>45932</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -857,28 +794,16 @@
         <v>45877</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="1">
         <v>45966</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" s="1">
-        <v>45929</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -892,22 +817,10 @@
         <v>45882</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" s="1">
-        <v>45940</v>
-      </c>
-      <c r="N7" t="s">
         <v>77</v>
       </c>
-      <c r="O7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -921,10 +834,10 @@
         <v>45883</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -938,13 +851,13 @@
         <v>45887</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -958,11 +871,11 @@
         <v>45889</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -976,11 +889,11 @@
         <v>45890</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -994,13 +907,13 @@
         <v>45894</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1011,13 +924,13 @@
         <v>45897</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1028,16 +941,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>45901</v>
+        <v>45929</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1048,81 +958,95 @@
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>45903</v>
+        <v>45901</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D16" s="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45904</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="E20" t="s">
         <v>76</v>
@@ -1130,16 +1054,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="E21" t="s">
         <v>77</v>
@@ -1147,33 +1071,33 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="E23" t="s">
         <v>76</v>
@@ -1181,16 +1105,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1">
-        <v>45919</v>
+        <v>45924</v>
       </c>
       <c r="E24" t="s">
         <v>77</v>
@@ -1198,33 +1122,33 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
@@ -1232,84 +1156,87 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
       </c>
       <c r="D27" s="1">
-        <v>45926</v>
+        <v>45931</v>
       </c>
       <c r="E27" t="s">
         <v>77</v>
       </c>
-      <c r="F27" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D28" s="1">
-        <v>45929</v>
+        <v>45933</v>
       </c>
       <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
       </c>
       <c r="D29" s="1">
-        <v>45931</v>
+        <v>45938</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1">
-        <v>45931</v>
+        <v>45939</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D31" s="1">
-        <v>45933</v>
+        <v>45940</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1317,16 +1244,19 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1">
-        <v>45938</v>
+        <v>45943</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1334,16 +1264,16 @@
         <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
-        <v>45939</v>
+        <v>45945</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1351,19 +1281,16 @@
         <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1">
-        <v>45943</v>
+        <v>45954</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1371,16 +1298,19 @@
         <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
-        <v>45945</v>
+        <v>45957</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="F35" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1388,13 +1318,13 @@
         <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1">
-        <v>45954</v>
+        <v>45959</v>
       </c>
       <c r="E36" t="s">
         <v>77</v>
@@ -1405,19 +1335,16 @@
         <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
-      </c>
-      <c r="F37" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1425,16 +1352,16 @@
         <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1442,16 +1369,16 @@
         <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1">
-        <v>45960</v>
+        <v>45966</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1459,16 +1386,16 @@
         <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D40" s="1">
-        <v>45961</v>
+        <v>45967</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="F40" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1476,19 +1403,13 @@
         <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D41" s="1">
-        <v>45966</v>
+        <v>45968</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1496,47 +1417,21 @@
         <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
       </c>
       <c r="D42" s="1">
-        <v>45967</v>
+        <v>45983</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="1">
-        <v>45968</v>
-      </c>
-      <c r="E43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="1">
-        <v>45983</v>
-      </c>
-      <c r="E44" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/records/25OS/Timeline.xlsx
+++ b/records/25OS/Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5540/records/25OS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="455" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29D2AB5E-56A4-324A-A5C7-7B2887F4145A}"/>
+  <xr:revisionPtr revIDLastSave="488" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C24F8A3A-5707-0545-8485-707D576C138B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="95">
   <si>
     <t xml:space="preserve"> S. No. </t>
   </si>
@@ -206,15 +206,9 @@
     <t xml:space="preserve"> 26     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Assignment #2 Discussion                </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Quiz-II                                 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 27     </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 28     </t>
   </si>
   <si>
@@ -308,9 +302,6 @@
     <t xml:space="preserve"> Discrete Event Simulation in Python</t>
   </si>
   <si>
-    <t xml:space="preserve"> Surplus Tutorial</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Single-Server Queueing Systems</t>
   </si>
   <si>
@@ -327,6 +318,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Introduction to Julia Programming Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assignment #2 Discussion</t>
   </si>
 </sst>
 </file>
@@ -649,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="178" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -676,16 +670,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -702,13 +696,13 @@
         <v>45869</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H2" s="1">
         <v>45884</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -725,13 +719,13 @@
         <v>45870</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H3" s="1">
         <v>45896</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -748,13 +742,13 @@
         <v>45875</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4" s="1">
         <v>45905</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -771,13 +765,13 @@
         <v>45876</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H5" s="1">
         <v>45932</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -794,13 +788,13 @@
         <v>45877</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H6" s="1">
         <v>45966</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -817,7 +811,7 @@
         <v>45882</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -834,7 +828,7 @@
         <v>45883</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -851,10 +845,10 @@
         <v>45887</v>
       </c>
       <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
         <v>79</v>
-      </c>
-      <c r="F9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -871,7 +865,7 @@
         <v>45889</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -889,7 +883,7 @@
         <v>45890</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -907,10 +901,10 @@
         <v>45894</v>
       </c>
       <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -924,10 +918,10 @@
         <v>45897</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -944,7 +938,7 @@
         <v>45929</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -961,10 +955,10 @@
         <v>45901</v>
       </c>
       <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
         <v>79</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -978,7 +972,7 @@
         <v>45904</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -995,10 +989,10 @@
         <v>45908</v>
       </c>
       <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
         <v>79</v>
-      </c>
-      <c r="F17" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1015,7 +1009,7 @@
         <v>45910</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1032,7 +1026,7 @@
         <v>45911</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1049,7 +1043,7 @@
         <v>45912</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1066,7 +1060,7 @@
         <v>45917</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1083,7 +1077,7 @@
         <v>45918</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1100,7 +1094,7 @@
         <v>45919</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1117,7 +1111,7 @@
         <v>45924</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1131,307 +1125,293 @@
         <v>5</v>
       </c>
       <c r="D25" s="1">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
-        <v>45926</v>
+        <v>45931</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1">
-        <v>45931</v>
+        <v>45933</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
-        <v>45933</v>
+        <v>45938</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D30" s="1">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
       </c>
       <c r="D31" s="1">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1">
-        <v>45945</v>
+        <v>45954</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1">
-        <v>45961</v>
+        <v>45966</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="D39" s="1">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="1">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
         <v>70</v>
       </c>
-      <c r="B41" t="s">
-        <v>87</v>
+      <c r="C41" t="s">
+        <v>31</v>
       </c>
       <c r="D41" s="1">
-        <v>45968</v>
+        <v>45983</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="1">
-        <v>45983</v>
-      </c>
-      <c r="E42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/records/25OS/Timeline.xlsx
+++ b/records/25OS/Timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5540/records/25OS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="488" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C24F8A3A-5707-0545-8485-707D576C138B}"/>
+  <xr:revisionPtr revIDLastSave="502" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10D2DD13-88AA-C047-952C-039160E18A73}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
   <si>
     <t xml:space="preserve"> S. No. </t>
   </si>
@@ -242,9 +242,6 @@
     <t xml:space="preserve"> 38     </t>
   </si>
   <si>
-    <t xml:space="preserve"> 39     </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 40     </t>
   </si>
   <si>
@@ -315,9 +312,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Car-Following Models</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introduction to Julia Programming Language</t>
   </si>
   <si>
     <t xml:space="preserve"> Assignment #2 Discussion</t>
@@ -374,10 +368,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -643,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="178" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="178" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -670,16 +660,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -696,13 +686,13 @@
         <v>45869</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1">
         <v>45884</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -719,13 +709,13 @@
         <v>45870</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="1">
         <v>45896</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -742,13 +732,13 @@
         <v>45875</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="1">
         <v>45905</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -765,13 +755,13 @@
         <v>45876</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" s="1">
         <v>45932</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -788,13 +778,13 @@
         <v>45877</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="1">
         <v>45966</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -811,7 +801,7 @@
         <v>45882</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -828,7 +818,7 @@
         <v>45883</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -845,10 +835,10 @@
         <v>45887</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -865,7 +855,7 @@
         <v>45889</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -883,7 +873,7 @@
         <v>45890</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -901,10 +891,10 @@
         <v>45894</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -918,10 +908,10 @@
         <v>45897</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -938,7 +928,7 @@
         <v>45929</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -955,10 +945,10 @@
         <v>45901</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -972,7 +962,7 @@
         <v>45904</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -989,10 +979,10 @@
         <v>45908</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1009,7 +999,7 @@
         <v>45910</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1026,7 +1016,7 @@
         <v>45911</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1043,7 +1033,7 @@
         <v>45912</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1060,7 +1050,7 @@
         <v>45917</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1077,7 +1067,7 @@
         <v>45918</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1094,7 +1084,7 @@
         <v>45919</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1111,7 +1101,7 @@
         <v>45924</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1128,10 +1118,10 @@
         <v>45929</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1139,7 +1129,7 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -1148,7 +1138,7 @@
         <v>45931</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1156,7 +1146,7 @@
         <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1165,10 +1155,10 @@
         <v>45933</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1176,7 +1166,7 @@
         <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -1185,7 +1175,7 @@
         <v>45938</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1193,7 +1183,7 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1202,12 +1192,12 @@
         <v>45939</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
@@ -1216,7 +1206,7 @@
         <v>45940</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1224,7 +1214,7 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1233,10 +1223,10 @@
         <v>45943</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1244,7 +1234,7 @@
         <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -1253,7 +1243,7 @@
         <v>45945</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1261,7 +1251,7 @@
         <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1270,7 +1260,7 @@
         <v>45954</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1278,7 +1268,7 @@
         <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1287,10 +1277,10 @@
         <v>45957</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1298,7 +1288,7 @@
         <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -1307,7 +1297,7 @@
         <v>45959</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1315,7 +1305,7 @@
         <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1324,7 +1314,7 @@
         <v>45960</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1332,7 +1322,7 @@
         <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1341,7 +1331,7 @@
         <v>45961</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1349,16 +1339,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1366,16 +1356,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
       </c>
       <c r="D39" s="1">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="E39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1383,10 +1373,13 @@
         <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
       </c>
       <c r="D40" s="1">
-        <v>45968</v>
+        <v>45983</v>
       </c>
       <c r="E40" t="s">
         <v>74</v>
@@ -1394,24 +1387,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="1">
-        <v>45983</v>
-      </c>
-      <c r="E41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
